--- a/matlab_distribution_fittings_eff_sand.xlsx
+++ b/matlab_distribution_fittings_eff_sand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Desktop\master_thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D8F444-42D6-48BD-AF6C-C6436F3E7E41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529AAD57-9865-4619-8550-B981379BA0CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11844" yWindow="396" windowWidth="9384" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
